--- a/acm-standard-applications/acm-foia/src/main/resources/rules/drools-on-enter-queue-rules-foia.xlsx
+++ b/acm-standard-applications/acm-foia/src/main/resources/rules/drools-on-enter-queue-rules-foia.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riste.tutureski\.arkcase\acm\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="996"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -37,11 +41,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -52,11 +56,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -169,15 +173,6 @@
     <t>foia-extension-fulfill-process</t>
   </si>
   <si>
-    <t>Suspend queue</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
-    <t>foia-extension-suspend-process</t>
-  </si>
-  <si>
     <t>Hold queue</t>
   </si>
   <si>
@@ -239,37 +234,28 @@
   </si>
   <si>
     <t>foia-extension-intake-process</t>
+  </si>
+  <si>
+    <t>Appeal queue</t>
+  </si>
+  <si>
+    <t>Appeal</t>
+  </si>
+  <si>
+    <t>foia-extension-appeal-process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -279,7 +265,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -338,207 +324,205 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -597,36 +581,498 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9700B2C1-0CEC-42D3-B92C-E8E3967D0C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6577FD-1883-4E88-8579-46CD1636804E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D75208-53D8-4429-86CC-99AC2A5C96A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.7295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1377551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="14.85546875"/>
+    <col min="2" max="2" width="24.28515625"/>
+    <col min="3" max="3" width="69.5703125"/>
+    <col min="4" max="4" width="70.7109375"/>
+    <col min="5" max="5" width="35.7109375"/>
+    <col min="6" max="6" width="24.140625"/>
+    <col min="7" max="7" width="35.5703125"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -635,7 +1081,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -648,7 +1094,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -661,7 +1107,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="7" t="s">
@@ -674,7 +1120,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
@@ -687,7 +1133,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
@@ -700,7 +1146,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
@@ -710,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -720,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="7" t="s">
@@ -730,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
@@ -740,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="185.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -751,7 +1197,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
@@ -764,17 +1210,17 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
@@ -782,13 +1228,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -802,7 +1248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>23</v>
@@ -814,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
@@ -825,156 +1271,136 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="12" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="12" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>